--- a/4_semestr/VichMath/Lab2/Лаба2.xlsx
+++ b/4_semestr/VichMath/Lab2/Лаба2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshen\Documents\GitHub\labs\4_semestr\VichMath\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF03EA-49AE-4B8B-97A0-11761F7A53A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E037ABC5-BB97-4D02-AE2A-CAE387BB5941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1050" windowWidth="22575" windowHeight="15000" xr2:uid="{ECC988C1-44A7-4CA4-B731-326F3A910542}"/>
+    <workbookView xWindow="4545" yWindow="585" windowWidth="22575" windowHeight="15000" xr2:uid="{ECC988C1-44A7-4CA4-B731-326F3A910542}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -136,9 +136,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -146,18 +161,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +479,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,34 +496,34 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="G2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -528,7 +531,7 @@
       <c r="B4" s="1">
         <v>34.35</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2.42</v>
       </c>
       <c r="D4" s="1">
@@ -612,38 +615,38 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -985,11 +988,11 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="3">
         <f t="shared" si="5"/>
         <v>9.766429303281754E-6</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="4">
         <f t="shared" si="5"/>
         <v>2.6216627035946516E-6</v>
       </c>
@@ -1051,21 +1054,21 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1075,16 +1078,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1272,7 +1275,9 @@
       <c r="S26" s="1"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B27" s="1">
         <f>G4*J4+H4*J5+I4*J6+J4</f>
         <v>0.50048493631372981</v>
@@ -1287,39 +1292,39 @@
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>0.51466592706009573</v>
+        <v>0.52355205528609039</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52027398801068026</v>
+        <v>0.52356487102613403</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52036571709070745</v>
+        <v>0.52356458551853879</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52036721747099879</v>
+        <v>0.5235645469826512</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52036724201219131</v>
+        <v>0.52356454534317931</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52036724241360299</v>
+        <v>0.52356454532007013</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52036724242016874</v>
+        <v>0.52356454532168206</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="6"/>
-        <v>0.5203672424202761</v>
+        <v>0.52356454532181251</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52036724242027788</v>
+        <v>0.52356454532181695</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -1329,54 +1334,56 @@
       <c r="S27" s="1"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="B28" s="1">
         <f>B27*J5+H5*J5+I5*J6+J5</f>
         <v>0.51454706274397566</v>
       </c>
       <c r="C28" s="1">
-        <f>$G5*$C27+I5*B29+$J5</f>
+        <f>$G5*C27+$I5*B29+$J5</f>
         <v>0.29759466580348037</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" ref="D28:M28" si="7">$G5*$C27+J5*C29+$J5</f>
-        <v>0.4758214551703478</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="D28" s="5">
+        <f t="shared" ref="D28:M28" si="7">$G5*D27+$I5*C29+$J5</f>
+        <v>0.28935485214661272</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="F28" s="1">
+        <v>0.28927984463220902</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="G28" s="1">
+        <v>0.28929023444812341</v>
+      </c>
+      <c r="G28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="H28" s="1">
+        <v>0.28929094509135217</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="I28" s="1">
+        <v>0.28929096626744788</v>
+      </c>
+      <c r="I28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="J28" s="1">
+        <v>0.28929096618965744</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="K28" s="1">
+        <v>0.28929096614790251</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="L28" s="1">
+        <v>0.28929096614571681</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
-      </c>
-      <c r="M28" s="1">
+        <v>0.28929096614566896</v>
+      </c>
+      <c r="M28" s="5">
         <f t="shared" si="7"/>
-        <v>0.35528579791451165</v>
+        <v>0.28929096614567018</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1386,7 +1393,9 @@
       <c r="S28" s="1"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="B29" s="1">
         <f>G6*B27+H6*B28+I6*J6+J6</f>
         <v>0.26640343433155589</v>
@@ -1397,43 +1406,43 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" ref="D29:M29" si="8">$G6*D27+$H6*D28+$J6</f>
-        <v>0.27004896576772552</v>
+        <v>0.30015425953154429</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>0.29047358368660076</v>
+        <v>0.30010091881285594</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>0.28982391484145975</v>
+        <v>0.30009775671623357</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="8"/>
-        <v>0.28981328843671628</v>
+        <v>0.30009767505667206</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="8"/>
-        <v>0.28981311462435233</v>
+        <v>0.30009767610197247</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="8"/>
-        <v>0.2898131117813646</v>
+        <v>0.30009767630445733</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="8"/>
-        <v>0.2898131117348629</v>
+        <v>0.30009767631387585</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="8"/>
-        <v>0.28981311173410229</v>
+        <v>0.30009767631404194</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="8"/>
-        <v>0.28981311173408986</v>
+        <v>0.30009767631403461</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="8"/>
-        <v>0.28981311173408963</v>
+        <v>0.30009767631403383</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
@@ -1462,43 +1471,43 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:M31" si="9">ABS(SUM(C27:C29)-SUM(D27:D29))</f>
-        <v>0.15876611490037695</v>
+        <v>2.4048056404606388E-3</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="9"/>
-        <v>0.10843218433472113</v>
+        <v>4.3663499514234871E-4</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="9"/>
-        <v>4.9583921054434654E-3</v>
+        <v>2.0043459335594704E-5</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="9"/>
-        <v>8.1102675283606374E-5</v>
+        <v>3.4347607202889208E-7</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="9"/>
-        <v>1.3265679275065168E-6</v>
+        <v>1.6314491535496245E-8</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="9"/>
-        <v>2.1698204788478392E-8</v>
+        <v>1.5147774146129223E-9</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="9"/>
-        <v>3.5491010130783707E-10</v>
+        <v>5.5445648072804943E-11</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="9"/>
-        <v>5.8051341511600185E-12</v>
+        <v>4.0767389464235748E-13</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="9"/>
-        <v>9.4813046302988369E-14</v>
+        <v>7.5495165674510645E-14</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="9"/>
-        <v>1.5543122344752192E-15</v>
+        <v>4.8849813083506888E-15</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1522,38 +1531,37 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
+        <v>3.4347607202889208E-7</v>
+      </c>
+      <c r="H32" s="4">
         <f t="shared" si="10"/>
-        <v>1.3265679275065168E-6</v>
+        <v>1.6314491535496245E-8</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="10"/>
-        <v>2.1698204788478392E-8</v>
+        <v>1.5147774146129223E-9</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="10"/>
-        <v>3.5491010130783707E-10</v>
+        <v>5.5445648072804943E-11</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="10"/>
-        <v>5.8051341511600185E-12</v>
+        <v>4.0767389464235748E-13</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="10"/>
-        <v>9.4813046302988369E-14</v>
+        <v>7.5495165674510645E-14</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="10"/>
-        <v>1.5543122344752192E-15</v>
+        <v>4.8849813083506888E-15</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A20:M20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="B3:D3"/>
@@ -1562,6 +1570,7 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="A9:M9"/>
     <mergeCell ref="B10:M10"/>
+    <mergeCell ref="A20:M20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/4_semestr/VichMath/Lab2/Лаба2.xlsx
+++ b/4_semestr/VichMath/Lab2/Лаба2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshen\Documents\GitHub\labs\4_semestr\VichMath\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E037ABC5-BB97-4D02-AE2A-CAE387BB5941}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2AB49D8-6A72-4919-B1C3-B115BB3F0C0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4545" yWindow="585" windowWidth="22575" windowHeight="15000" xr2:uid="{ECC988C1-44A7-4CA4-B731-326F3A910542}"/>
+    <workbookView xWindow="9735" yWindow="990" windowWidth="14190" windowHeight="15000" xr2:uid="{ECC988C1-44A7-4CA4-B731-326F3A910542}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -153,14 +153,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,7 +479,7 @@
   <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,33 +496,33 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
       <c r="J3" s="2" t="s">
         <v>3</v>
       </c>
@@ -615,38 +615,38 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -1054,21 +1054,21 @@
       <c r="S19" s="1"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -1078,16 +1078,16 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -1284,43 +1284,43 @@
       </c>
       <c r="C27" s="1">
         <f>$H4*B28+$I4*B29+$J4</f>
-        <v>0.51245238578315955</v>
+        <v>0.52419531431040578</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" ref="D27:M27" si="6">$H4*C28+$I4*C29+$J4</f>
-        <v>0.522987072057856</v>
+        <v>0.52364043151028672</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52355205528609039</v>
+        <v>0.5235676526918015</v>
       </c>
       <c r="F27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52356487102613403</v>
+        <v>0.52356458408939077</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52356458551853879</v>
+        <v>0.52356454198679314</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="6"/>
-        <v>0.5235645469826512</v>
+        <v>0.52356454506774297</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52356454534317931</v>
+        <v>0.52356454531357499</v>
       </c>
       <c r="J27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52356454532007013</v>
+        <v>0.52356454532180741</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52356454532168206</v>
+        <v>0.52356454532183105</v>
       </c>
       <c r="L27" s="1">
         <f t="shared" si="6"/>
-        <v>0.52356454532181251</v>
+        <v>0.52356454532181773</v>
       </c>
       <c r="M27" s="1">
         <f t="shared" si="6"/>
@@ -1338,52 +1338,52 @@
         <v>16</v>
       </c>
       <c r="B28" s="1">
-        <f>B27*J5+H5*J5+I5*J6+J5</f>
-        <v>0.51454706274397566</v>
+        <f>B27*G5+H5*J5+I5*J6+J5</f>
+        <v>0.26813333380175086</v>
       </c>
       <c r="C28" s="1">
         <f>$G5*C27+$I5*B29+$J5</f>
-        <v>0.29759466580348037</v>
+        <v>0.28791506723401011</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" ref="D28:M28" si="7">$G5*D27+$I5*C29+$J5</f>
-        <v>0.28935485214661272</v>
+        <v>0.28925180733290845</v>
       </c>
       <c r="E28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28927984463220902</v>
+        <v>0.28929121918311362</v>
       </c>
       <c r="F28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929023444812341</v>
+        <v>0.28929104943396267</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929094509135217</v>
+        <v>0.28929097033248896</v>
       </c>
       <c r="H28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929096626744788</v>
+        <v>0.28929096623141431</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929096618965744</v>
+        <v>0.28929096614304117</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929096614790251</v>
+        <v>0.28929096614537253</v>
       </c>
       <c r="K28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929096614571681</v>
+        <v>0.28929096614565841</v>
       </c>
       <c r="L28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929096614566896</v>
+        <v>0.28929096614567018</v>
       </c>
       <c r="M28" s="5">
         <f t="shared" si="7"/>
-        <v>0.28929096614567018</v>
+        <v>0.2892909661456704</v>
       </c>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -1398,47 +1398,47 @@
       </c>
       <c r="B29" s="1">
         <f>G6*B27+H6*B28+I6*J6+J6</f>
-        <v>0.26640343433155589</v>
+        <v>0.30618727538913881</v>
       </c>
       <c r="C29" s="1">
         <f>$G6*C27+$H6*C28+$J6</f>
-        <v>0.30004432650891233</v>
+        <v>0.30024674534337015</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" ref="D29:M29" si="8">$G6*D27+$H6*D28+$J6</f>
-        <v>0.30015425953154429</v>
+        <v>0.30009520748267632</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30010091881285594</v>
+        <v>0.3000972754858332</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009775671623357</v>
+        <v>0.30009765837597213</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009767505667206</v>
+        <v>0.30009767602441373</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009767610197247</v>
+        <v>0.3000976763296237</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009767630445733</v>
+        <v>0.30009767631541312</v>
       </c>
       <c r="J29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009767631387585</v>
+        <v>0.30009767631408302</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009767631404194</v>
+        <v>0.30009767631403417</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="8"/>
-        <v>0.30009767631403461</v>
+        <v>0.30009767631403378</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="8"/>
@@ -1467,47 +1467,47 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <f>ABS(SUM(B27:B29)-SUM(C27:C29))</f>
-        <v>0.17134405529370911</v>
+        <v>3.755158138316661E-2</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:M31" si="9">ABS(SUM(C27:C29)-SUM(D27:D29))</f>
-        <v>2.4048056404606388E-3</v>
+        <v>6.303194380854471E-4</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="9"/>
-        <v>4.3663499514234871E-4</v>
+        <v>3.1298965123216504E-5</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" si="9"/>
-        <v>2.0043459335594704E-5</v>
+        <v>2.8554614226461439E-6</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="9"/>
-        <v>3.4347607202889208E-7</v>
+        <v>1.035556298489837E-7</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="9"/>
-        <v>1.6314491535496245E-8</v>
+        <v>7.1491479403107405E-10</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="9"/>
-        <v>1.5147774146129223E-9</v>
+        <v>1.4324830210910022E-10</v>
       </c>
       <c r="J31" s="1">
         <f t="shared" si="9"/>
-        <v>5.5445648072804943E-11</v>
+        <v>9.2337248958074269E-12</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="9"/>
-        <v>4.0767389464235748E-13</v>
+        <v>2.6068036618198676E-13</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="9"/>
-        <v>7.5495165674510645E-14</v>
+        <v>1.9984014443252818E-15</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="9"/>
-        <v>4.8849813083506888E-15</v>
+        <v>6.6613381477509392E-16</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
@@ -1529,35 +1529,35 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.8554614226461439E-6</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="10"/>
-        <v>3.4347607202889208E-7</v>
+        <v>1.035556298489837E-7</v>
       </c>
       <c r="H32" s="4">
         <f t="shared" si="10"/>
-        <v>1.6314491535496245E-8</v>
+        <v>7.1491479403107405E-10</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="10"/>
-        <v>1.5147774146129223E-9</v>
+        <v>1.4324830210910022E-10</v>
       </c>
       <c r="J32" s="1">
         <f t="shared" si="10"/>
-        <v>5.5445648072804943E-11</v>
+        <v>9.2337248958074269E-12</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="10"/>
-        <v>4.0767389464235748E-13</v>
+        <v>2.6068036618198676E-13</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="10"/>
-        <v>7.5495165674510645E-14</v>
+        <v>1.9984014443252818E-15</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="10"/>
-        <v>4.8849813083506888E-15</v>
+        <v>6.6613381477509392E-16</v>
       </c>
     </row>
   </sheetData>
